--- a/galleryapp/gallery-web/gallery-web-form-basic.xlsx
+++ b/galleryapp/gallery-web/gallery-web-form-basic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="150">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.example.web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>basic</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -711,26 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>##ATTR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -740,14 +716,6 @@
   </si>
   <si>
     <t>FORMATPATTERN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.FormatPattern</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.FormatPattern</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -801,7 +769,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.foundation.spring.webmvc.SortParam</t>
+    <t>cherry.fundamental.spring.webmvc.SortParam</t>
+  </si>
+  <si>
+    <t>cherry.gallery.web</t>
+  </si>
+  <si>
+    <t>cherry.gallery.web.FormatPattern</t>
+  </si>
+  <si>
+    <t>galleryapp/gallery-web</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,19 +1594,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -1637,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -1646,18 +1623,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex10.BasicEx10Form</v>
+        <v>cherry.gallery.web.basic.ex10.BasicEx10Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -1665,10 +1642,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -1703,12 +1680,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -1747,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -1809,7 +1786,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -1860,24 +1837,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1897,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1910,7 +1887,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1930,28 +1907,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1969,26 +1946,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2006,26 +1983,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2043,13 +2020,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2074,13 +2051,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2105,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2136,13 +2113,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2199,19 +2176,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2219,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2228,18 +2205,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex60.BasicEx61SubForm</v>
+        <v>cherry.gallery.web.basic.ex60.BasicEx61SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2247,10 +2224,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -2285,12 +2262,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -2329,7 +2306,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -2391,7 +2368,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -2442,20 +2419,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11"/>
@@ -2477,24 +2454,24 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2514,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -2527,7 +2504,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2547,28 +2524,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2586,26 +2563,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2623,26 +2600,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2660,13 +2637,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2691,13 +2668,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2722,13 +2699,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2753,13 +2730,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2816,19 +2793,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2836,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2845,18 +2822,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex90.BasicEx90Form</v>
+        <v>cherry.gallery.web.basic.ex90.BasicEx90Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -2864,10 +2841,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -2902,12 +2879,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -2946,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -3008,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -3059,18 +3036,18 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11"/>
@@ -3092,20 +3069,20 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="11"/>
@@ -3127,13 +3104,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3158,13 +3135,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3189,13 +3166,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3252,19 +3229,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3272,7 +3249,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3281,18 +3258,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex90.BasicEx90LoadForm</v>
+        <v>cherry.gallery.web.basic.ex90.BasicEx90LoadForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3300,10 +3277,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -3338,12 +3315,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -3382,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -3444,7 +3421,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -3495,24 +3472,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3532,10 +3509,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -3545,7 +3522,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3565,28 +3542,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -3604,26 +3581,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -3641,26 +3618,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3710,19 +3687,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3730,7 +3707,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3739,18 +3716,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex20.BasicEx20Form</v>
+        <v>cherry.gallery.web.basic.ex20.BasicEx20Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -3758,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -3796,12 +3773,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -3840,7 +3817,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -3902,7 +3879,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -3953,24 +3930,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3990,10 +3967,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -4003,7 +3980,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4023,28 +4000,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -4062,26 +4039,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4099,26 +4076,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -4136,13 +4113,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4167,13 +4144,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4198,13 +4175,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4229,13 +4206,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4292,19 +4269,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4312,7 +4289,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4321,18 +4298,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex30.BasicEx30Form</v>
+        <v>cherry.gallery.web.basic.ex30.BasicEx30Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -4340,10 +4317,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -4378,12 +4355,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -4422,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -4484,7 +4461,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -4535,22 +4512,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4570,28 +4547,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -4609,28 +4586,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -4648,26 +4625,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4685,26 +4662,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -4722,26 +4699,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -4759,26 +4736,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -4796,13 +4773,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4827,13 +4804,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4858,13 +4835,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4889,13 +4866,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4920,13 +4897,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4951,13 +4928,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4982,13 +4959,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5013,13 +4990,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -5044,20 +5021,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -5079,20 +5056,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -5114,13 +5091,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5145,13 +5122,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -5208,19 +5185,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5228,7 +5205,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5237,18 +5214,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex30.BasicEx31Form</v>
+        <v>cherry.gallery.web.basic.ex30.BasicEx31Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5256,10 +5233,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -5294,12 +5271,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -5338,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -5400,7 +5377,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -5451,24 +5428,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -5488,10 +5465,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -5501,7 +5478,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -5521,28 +5498,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -5560,26 +5537,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -5597,26 +5574,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -5634,13 +5611,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5665,13 +5642,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5696,13 +5673,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5727,13 +5704,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5790,19 +5767,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5810,7 +5787,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5819,18 +5796,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex40.BasicEx40Form</v>
+        <v>cherry.gallery.web.basic.ex40.BasicEx40Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -5838,10 +5815,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -5876,12 +5853,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -5920,7 +5897,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -5982,7 +5959,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -6033,22 +6010,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -6068,28 +6045,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -6107,28 +6084,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -6146,26 +6123,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -6183,26 +6160,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6220,26 +6197,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -6257,26 +6234,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -6294,13 +6271,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6325,13 +6302,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6356,13 +6333,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6387,13 +6364,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6418,13 +6395,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6449,13 +6426,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6480,13 +6457,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -6511,13 +6488,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6542,20 +6519,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -6577,20 +6554,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -6612,13 +6589,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -6643,13 +6620,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -6706,19 +6683,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6726,7 +6703,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6735,18 +6712,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex40.BasicEx41Form</v>
+        <v>cherry.gallery.web.basic.ex40.BasicEx41Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -6754,10 +6731,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -6792,12 +6769,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -6836,7 +6813,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -6898,7 +6875,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -6949,24 +6926,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -6986,10 +6963,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -6999,7 +6976,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -7019,28 +6996,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -7058,26 +7035,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -7095,26 +7072,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -7132,13 +7109,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7163,13 +7140,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -7194,13 +7171,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7225,13 +7202,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7288,19 +7265,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7308,7 +7285,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7317,18 +7294,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex50.BasicEx50Form</v>
+        <v>cherry.gallery.web.basic.ex50.BasicEx50Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -7336,10 +7313,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -7374,12 +7351,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -7418,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -7480,7 +7457,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -7531,22 +7508,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -7566,28 +7543,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -7605,28 +7582,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -7644,26 +7621,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -7681,26 +7658,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -7718,26 +7695,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -7755,26 +7732,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -7792,13 +7769,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7823,13 +7800,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7854,13 +7831,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7885,13 +7862,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7916,13 +7893,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7947,13 +7924,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -7978,13 +7955,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -8009,13 +7986,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -8040,20 +8017,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -8075,20 +8052,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -8110,13 +8087,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -8141,13 +8118,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -8204,19 +8181,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8224,7 +8201,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8233,18 +8210,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex50.BasicEx51SubForm</v>
+        <v>cherry.gallery.web.basic.ex50.BasicEx51SubForm</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8252,10 +8229,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -8290,12 +8267,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -8334,7 +8311,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -8396,7 +8373,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -8447,20 +8424,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="11"/>
@@ -8482,24 +8459,24 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -8519,10 +8496,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -8532,7 +8509,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -8552,28 +8529,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -8591,26 +8568,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -8628,26 +8605,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -8665,13 +8642,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -8696,13 +8673,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -8727,13 +8704,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -8758,13 +8735,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -8821,19 +8798,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8841,7 +8818,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8850,18 +8827,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f>C2&amp;"."&amp;LOWER(C1)&amp;"."&amp;LOWER(E1)&amp;"."&amp;G1&amp;"Form"</f>
-        <v>cherry.example.web.basic.ex60.BasicEx60Form</v>
+        <v>cherry.gallery.web.basic.ex60.BasicEx60Form</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" outlineLevel="1">
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" outlineLevel="1">
@@ -8869,10 +8846,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1"/>
@@ -8907,12 +8884,12 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
@@ -8951,7 +8928,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -9013,7 +8990,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -9064,22 +9041,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -9099,28 +9076,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -9138,28 +9115,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9177,26 +9154,26 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -9214,26 +9191,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -9251,26 +9228,26 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -9288,26 +9265,26 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -9325,13 +9302,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -9356,13 +9333,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -9387,13 +9364,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -9418,13 +9395,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -9449,13 +9426,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -9480,13 +9457,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9511,13 +9488,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -9542,13 +9519,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -9573,20 +9550,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
@@ -9608,20 +9585,20 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
@@ -9643,13 +9620,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -9674,13 +9651,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
